--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_2.xlsx
@@ -482,741 +482,741 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2701742343213689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1131629723332158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.913540015938044</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2121305278927856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8077020645141602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.56532871723175</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.4264284670352936</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1934568732976913</v>
+        <v>1.029375791549683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_22</t>
+          <t>model_6_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2727388848632211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1134487247300462</v>
       </c>
       <c r="D3" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.858185881517677</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2152531461068312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8048638105392456</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.564824461936951</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.4183267951011658</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1934568732976913</v>
+        <v>1.025295972824097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_21</t>
+          <t>model_6_2_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2840762013582634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.109720147716511</v>
       </c>
       <c r="D4" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.506388007714128</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2311319399502455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.792316734790802</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.571405649185181</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3668373227119446</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1934568732976913</v>
+        <v>1.004549860954285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_20</t>
+          <t>model_6_2_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.28702344667971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1407824315618733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.617488467044033</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2474910410603124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7890548706054688</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.516578316688538</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3830980658531189</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9831761717796326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_19</t>
+          <t>model_6_2_12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2918265670586877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1228561128066425</v>
       </c>
       <c r="D6" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.414509043880367</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2453703497115158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7837392687797546</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.548219561576843</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3533897995948792</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9859468936920166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_18</t>
+          <t>model_6_2_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2925916187066399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1251258007594539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.419992868707918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2467048172305097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.782892644405365</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.544213533401489</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3541924357414246</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9842033386230469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_17</t>
+          <t>model_6_2_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2933330629870743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1359172333389763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.449571619219163</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2528636580137626</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7820720672607422</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.525166034698486</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3585216104984283</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9761565923690796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_16</t>
+          <t>model_6_2_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.29348756127548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1278102500403911</v>
       </c>
       <c r="D9" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.400731495095375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2496399596393868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7819010615348816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.539475321769714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3513733148574829</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.980368435382843</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_15</t>
+          <t>model_6_2_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2943911627537656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1316191013542732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.394662423753047</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2526840655632612</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7809010744094849</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.532752513885498</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3504850566387177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9763913154602051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_14</t>
+          <t>model_6_2_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2948009192297004</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1326190484621492</v>
       </c>
       <c r="D11" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.40883226642906</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2526523537437936</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7804475426673889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.53098738193512</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3525589406490326</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9764328002929688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_13</t>
+          <t>model_6_2_5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2949132700251683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.136784885547595</v>
       </c>
       <c r="D12" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.404604702488317</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2558544576519743</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7803232073783875</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.523634433746338</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3519402146339417</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9722490906715393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_23</t>
+          <t>model_6_2_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2949577797330135</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1333532530024789</v>
       </c>
       <c r="D13" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.400148378658699</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2536350278333619</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.780273973941803</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.529691457748413</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3512879610061646</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9751487970352173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_12</t>
+          <t>model_6_2_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2949632537442488</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.133170275098434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.397417648757259</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2536480735664385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7802680134773254</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.530014514923096</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3508882820606232</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9751317501068115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_10</t>
+          <t>model_6_2_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.295121772602837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1330242846072452</v>
       </c>
       <c r="D15" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.389391699001949</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2539669578122902</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7800924181938171</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.530272126197815</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3497136235237122</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9747151732444763</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_9</t>
+          <t>model_6_2_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2957177567449119</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1361873263049456</v>
       </c>
       <c r="D16" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.397527668325239</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2558003602487877</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7794329524040222</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.524689197540283</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3509044051170349</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9723197817802429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_8</t>
+          <t>model_6_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2961513408142268</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.138179355227074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.386423240294278</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2578107726053988</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7789530158042908</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.521173000335693</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3492791652679443</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.969693124294281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_7</t>
+          <t>model_6_2_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2963881874694364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.138696750414979</v>
       </c>
       <c r="D18" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.393057196736398</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.257830841904193</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7786909341812134</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.520259857177734</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3502501249313354</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9696668982505798</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_6</t>
+          <t>model_6_2_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2964163810694116</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1407545324911047</v>
       </c>
       <c r="D19" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.399899116569243</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2589416484010726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7786597013473511</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.516627788543701</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.351251482963562</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9682155847549438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_5</t>
+          <t>model_6_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2964484177040639</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1406199027729237</v>
       </c>
       <c r="D20" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.389879497227462</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2593738086823931</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7786242365837097</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.516865253448486</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3497850298881531</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9676508903503418</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_4</t>
+          <t>model_6_2_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2968839050171601</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.140554545972241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.404054898945989</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2585797589431456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7781423330307007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.516980648040771</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3518597483634949</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.968688428401947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_3</t>
+          <t>model_6_2_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2970281357903348</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1405054720375397</v>
       </c>
       <c r="D22" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.400268348666207</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2587441911039828</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7779827117919922</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.517067432403564</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3513055145740509</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9684735536575317</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_2</t>
+          <t>model_6_2_19</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2983046408178568</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.145636399893712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.392513318120053</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2628228248463362</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7765699625015259</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.508010983467102</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3501704931259155</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9631447792053223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_1</t>
+          <t>model_6_2_11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2989771953644103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1485809616048107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.384392497963128</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2653570745642803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7758256793022156</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.502813577651978</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3489819169044495</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9598336219787598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_11</t>
+          <t>model_6_2_7</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2994351943494277</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1505186698826096</v>
       </c>
       <c r="D25" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.37064978367047</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.2674672068363617</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7753188014030457</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.499393224716187</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3469705283641815</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9570766687393188</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.300025823579237</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08500663222815041</v>
+        <v>0.1526031866558233</v>
       </c>
       <c r="D26" t="n">
-        <v>0.955380591380626</v>
+        <v>-1.408985738635839</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6706288923336103</v>
+        <v>0.266937029696071</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7746652364730835</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3331795930862427</v>
+        <v>1.495713829994202</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03626888617873192</v>
+        <v>0.3525814116001129</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1934568732976913</v>
+        <v>0.9577692747116089</v>
       </c>
     </row>
   </sheetData>
